--- a/Resources/2008/Advanced_Percentile_2008.xlsx
+++ b/Resources/2008/Advanced_Percentile_2008.xlsx
@@ -1438,7 +1438,7 @@
     <t>Dwight Howard</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Paul Pierce</t>
@@ -1456,10 +1456,10 @@
     <t>Deron Williams</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
-  </si>
-  <si>
-    <t>Allen Iverson*</t>
+    <t>Steve Nash</t>
+  </si>
+  <si>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Pau Gasol</t>
@@ -1492,7 +1492,7 @@
     <t>Andre Iguodala</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>J.R. Smith</t>
@@ -1630,7 +1630,7 @@
     <t>Jerome James</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Rudy Gay</t>
@@ -1669,13 +1669,13 @@
     <t>Mehmet Okur</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Nick Fazekas</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Jameer Nelson</t>
@@ -1840,7 +1840,7 @@
     <t>Mike Harris</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Jamario Moon</t>
@@ -1852,7 +1852,7 @@
     <t>Marvin Williams</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Marcus Camby</t>
@@ -1873,7 +1873,7 @@
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Channing Frye</t>
